--- a/datf_core/test/testcases/testcase34_delta_parquet_auto.xlsx
+++ b/datf_core/test/testcases/testcase34_delta_parquet_auto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39398BB7-8174-4BF0-B3E7-AA392B331498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD29586-9620-4B6F-B488-7575E81CF79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>testquerygenerationmode</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>testcase34_delta_parquet_auto</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>test/s2t/s2t_34_delta_parquet_auto.xlsx</t>
+  </si>
+  <si>
+    <t>Id_New</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">

--- a/datf_core/test/testcases/testcase34_delta_parquet_auto.xlsx
+++ b/datf_core/test/testcases/testcase34_delta_parquet_auto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD29586-9620-4B6F-B488-7575E81CF79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BECDC6-B8DE-467A-9507-C19E775005A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>testcasename</t>
   </si>
   <si>
-    <t>source_to_stage</t>
-  </si>
-  <si>
     <t>targetconnectionname</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Id_New</t>
+  </si>
+  <si>
+    <t>source_to_target</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,15 +547,15 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3"/>
     </row>
@@ -573,37 +573,37 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3"/>
     </row>
@@ -622,73 +622,73 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3"/>
     </row>
@@ -700,13 +700,13 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3"/>
     </row>
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
